--- a/data_internet_users.xlsx
+++ b/data_internet_users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Applied DS 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://herts365-my.sharepoint.com/personal/bb22aca_herts_ac_uk/Documents/Assignment1_Visualisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD48ADB7-D0A8-45E4-AB4A-BC0E7E8DF7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{FD48ADB7-D0A8-45E4-AB4A-BC0E7E8DF7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0342C751-DCFB-4DEB-98F6-BC64AC8FD2B4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,57 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>82.0</t>
   </si>
   <si>
-    <t>87.6</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>53.7</t>
   </si>
   <si>
-    <t>58.1</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>23.3</t>
   </si>
   <si>
-    <t>48.9</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
     <t>90.7</t>
   </si>
   <si>
-    <t>91.7</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>62.3</t>
-  </si>
-  <si>
-    <t>68.0</t>
   </si>
   <si>
     <t>Countries</t>
@@ -443,91 +425,71 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:D6 B1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B6 B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>